--- a/N2_L4_intestine_RNAseq/03_output/intestine/unique_genes_venn_diagram.xlsx
+++ b/N2_L4_intestine_RNAseq/03_output/intestine/unique_genes_venn_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicahill/Documents/GitHub/C-elegans_Intestine_RNAseq/N2_L4_intestine_RNAseq/03_output/intestine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DA5686-2E33-EB4B-A047-67A270009EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCE3B81-B9B4-BA42-A65F-4781BF3893EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="500" windowWidth="24040" windowHeight="19040" activeTab="3" xr2:uid="{17EB60AE-2DC3-E947-A593-EAD4CA107D3A}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="24040" windowHeight="19040" xr2:uid="{17EB60AE-2DC3-E947-A593-EAD4CA107D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2771,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0C204F-4746-604D-8D2D-BC6724AD9FEB}">
   <dimension ref="A1:A396"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5167,8 +5167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C192AA7B-D22B-0A44-AE83-1C50636DB45B}">
   <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
